--- a/出厂编号.xlsx
+++ b/出厂编号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\MQTT\MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D308BD-6389-4DDC-9052-3F14D63ED076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F3D40-BAF1-4F3B-8804-3A90337E6DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="0" windowWidth="14580" windowHeight="17370" activeTab="3" xr2:uid="{081BC6E9-CFA5-4DE6-A411-8BA3DE53E0FD}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28960" windowHeight="17440" activeTab="1" xr2:uid="{081BC6E9-CFA5-4DE6-A411-8BA3DE53E0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="应城" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1370">
   <si>
     <t>出厂编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4207,6 +4207,10 @@
   </si>
   <si>
     <t>999050101011000000084040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999050101011000000064761</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5545,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B495A71-ED42-4CFB-B03A-0D240B539277}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6630,7 +6634,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -6641,7 +6645,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -6652,7 +6656,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -6674,7 +6678,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -6740,7 +6744,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -6762,7 +6766,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
@@ -6783,8 +6787,11 @@
       <c r="C110" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -6795,7 +6802,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -15380,7 +15387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C192E7-A8F2-4D58-A1CC-5F0757929B23}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/出厂编号.xlsx
+++ b/出厂编号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\MQTT\MQTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F3D40-BAF1-4F3B-8804-3A90337E6DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC754F70-3734-4EFD-81B3-669F1EFEA19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="28960" windowHeight="17440" activeTab="1" xr2:uid="{081BC6E9-CFA5-4DE6-A411-8BA3DE53E0FD}"/>
+    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" activeTab="4" xr2:uid="{081BC6E9-CFA5-4DE6-A411-8BA3DE53E0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="应城" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">大冶!$A$1:$G$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">潜江!$A$1:$G$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">团风!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">团风!$A$1:$AL$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">应城!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1435">
   <si>
     <t>出厂编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2335,9 +2335,6 @@
     <t>30.640981</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>1031240625010002</t>
   </si>
   <si>
@@ -4212,13 +4209,213 @@
   <si>
     <t>999050101011000000064761</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999050101011000000097432</t>
+  </si>
+  <si>
+    <t>999050101011000000097712</t>
+  </si>
+  <si>
+    <t>999050101011000000097942</t>
+  </si>
+  <si>
+    <t>999050101011000000098132</t>
+  </si>
+  <si>
+    <t>999050101011000000097692</t>
+  </si>
+  <si>
+    <t>999050101011000000097742</t>
+  </si>
+  <si>
+    <t>999050101011000000098602</t>
+  </si>
+  <si>
+    <t>999050101011000000055521</t>
+  </si>
+  <si>
+    <t>999050101011000000064701</t>
+  </si>
+  <si>
+    <t>999050101011000000062150</t>
+  </si>
+  <si>
+    <t>999050101011000000058932</t>
+  </si>
+  <si>
+    <t>999050101011000000060369</t>
+  </si>
+  <si>
+    <t>999050101011000000063410</t>
+  </si>
+  <si>
+    <t>999050101011000000064060</t>
+  </si>
+  <si>
+    <t>999050101011000000060549</t>
+  </si>
+  <si>
+    <t>999050101011000000065321</t>
+  </si>
+  <si>
+    <t>999050101011000000060710</t>
+  </si>
+  <si>
+    <t>999050101011000000063210</t>
+  </si>
+  <si>
+    <t>999050101011000000059062</t>
+  </si>
+  <si>
+    <t>999050101011000000064611</t>
+  </si>
+  <si>
+    <t>999050101011000000068542</t>
+  </si>
+  <si>
+    <t>999050101011000000068802</t>
+  </si>
+  <si>
+    <t>999050101011000000061300</t>
+  </si>
+  <si>
+    <t>999050101011000000062310</t>
+  </si>
+  <si>
+    <t>999050101011000000060109</t>
+  </si>
+  <si>
+    <t>999050101011000000062940</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999050101011000000059552</t>
+  </si>
+  <si>
+    <t>999050101011000000062050</t>
+  </si>
+  <si>
+    <t>999050101011000000057792</t>
+  </si>
+  <si>
+    <t>999050101011000000063741</t>
+  </si>
+  <si>
+    <t>999050101011000000059682</t>
+  </si>
+  <si>
+    <t>999050101011000000064160</t>
+  </si>
+  <si>
+    <t>999050101011000000064511</t>
+  </si>
+  <si>
+    <t>999050101011000000059192</t>
+  </si>
+  <si>
+    <t>999050101011000000059092</t>
+  </si>
+  <si>
+    <t>999050101011000000060990</t>
+  </si>
+  <si>
+    <t>999050101011000000062870</t>
+  </si>
+  <si>
+    <t>999050101011000000061810</t>
+  </si>
+  <si>
+    <t>999050101011000000063630</t>
+  </si>
+  <si>
+    <t>999050101011000000063260</t>
+  </si>
+  <si>
+    <t>999050101011000000060840</t>
+  </si>
+  <si>
+    <t>999050101011000000059902</t>
+  </si>
+  <si>
+    <t>999050101011000000061970</t>
+  </si>
+  <si>
+    <t>999050101011000000065080</t>
+  </si>
+  <si>
+    <t>999050101011000000062220</t>
+  </si>
+  <si>
+    <t>999050101011000000062010</t>
+  </si>
+  <si>
+    <t>999050101011000000063941</t>
+  </si>
+  <si>
+    <t>999050101011000000058960</t>
+  </si>
+  <si>
+    <t>999050101011000000059152</t>
+  </si>
+  <si>
+    <t>999050101011000000060399</t>
+  </si>
+  <si>
+    <t>999050101011000000061299</t>
+  </si>
+  <si>
+    <t>999050101011000000059972</t>
+  </si>
+  <si>
+    <t>999050101011000000059380</t>
+  </si>
+  <si>
+    <t>999050101011000000061910</t>
+  </si>
+  <si>
+    <t>999050101011000000059722</t>
+  </si>
+  <si>
+    <t>999050101011000000064811</t>
+  </si>
+  <si>
+    <t>999050101011000000062320</t>
+  </si>
+  <si>
+    <t>999050101011000000059782</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>999050101011000000057001</t>
+  </si>
+  <si>
+    <t>999050101011000000056922</t>
+  </si>
+  <si>
+    <t>999050101011000000056561</t>
+  </si>
+  <si>
+    <t>999050101011000000056661</t>
+  </si>
+  <si>
+    <t>999050101011000000056731</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4259,14 +4456,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -4324,7 +4513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4349,17 +4538,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4367,7 +4547,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4378,6 +4558,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4704,7 +4890,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4712,7 +4898,7 @@
     <col min="1" max="1" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4749,8 +4935,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>1072</v>
+      <c r="C2" s="13" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4760,8 +4946,8 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>1073</v>
+      <c r="C3" s="13" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4771,8 +4957,8 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>1074</v>
+      <c r="C4" s="13" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4782,8 +4968,8 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>1075</v>
+      <c r="C5" s="13" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4793,8 +4979,11 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>1076</v>
+      <c r="C6" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4804,8 +4993,8 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>1077</v>
+      <c r="C7" s="13" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4815,8 +5004,8 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>1078</v>
+      <c r="C8" s="13" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4826,8 +5015,8 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>1079</v>
+      <c r="C9" s="14" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4837,8 +5026,8 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>1080</v>
+      <c r="C10" s="14" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4848,8 +5037,8 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>1081</v>
+      <c r="C11" s="14" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4859,8 +5048,8 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>1082</v>
+      <c r="C12" s="14" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4870,8 +5059,8 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>1083</v>
+      <c r="C13" s="14" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4881,8 +5070,8 @@
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>1138</v>
+      <c r="C14" s="14" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4892,8 +5081,8 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>1084</v>
+      <c r="C15" s="14" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4903,33 +5092,33 @@
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="14" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -4937,10 +5126,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4948,10 +5137,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -4959,10 +5148,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1089</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -4970,10 +5162,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -4981,10 +5173,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
@@ -4992,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -5003,10 +5195,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1092</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -5014,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>147</v>
       </c>
@@ -5025,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>148</v>
       </c>
@@ -5036,10 +5231,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>149</v>
       </c>
@@ -5047,10 +5242,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -5058,10 +5253,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1097</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
@@ -5069,10 +5267,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>152</v>
       </c>
@@ -5080,10 +5278,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
@@ -5091,10 +5289,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>154</v>
       </c>
@@ -5102,10 +5300,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>155</v>
       </c>
@@ -5113,10 +5314,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>156</v>
       </c>
@@ -5124,10 +5325,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>157</v>
       </c>
@@ -5135,10 +5336,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -5146,10 +5347,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>159</v>
       </c>
@@ -5157,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>160</v>
       </c>
@@ -5168,10 +5369,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -5179,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
@@ -5190,10 +5391,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>163</v>
       </c>
@@ -5201,10 +5402,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>164</v>
       </c>
@@ -5212,10 +5413,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>165</v>
       </c>
@@ -5223,10 +5424,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
@@ -5234,10 +5435,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -5245,10 +5446,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>168</v>
       </c>
@@ -5256,10 +5457,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>169</v>
       </c>
@@ -5267,10 +5468,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
@@ -5278,10 +5482,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>171</v>
       </c>
@@ -5289,10 +5493,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>172</v>
       </c>
@@ -5300,10 +5504,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
@@ -5311,10 +5515,10 @@
         <v>194</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
@@ -5322,10 +5526,10 @@
         <v>195</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>175</v>
       </c>
@@ -5333,10 +5537,10 @@
         <v>196</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
@@ -5344,10 +5548,10 @@
         <v>197</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>177</v>
       </c>
@@ -5355,10 +5559,10 @@
         <v>198</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>178</v>
       </c>
@@ -5366,10 +5570,13 @@
         <v>199</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1121</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -5377,10 +5584,10 @@
         <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -5388,10 +5595,10 @@
         <v>201</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -5399,10 +5606,10 @@
         <v>202</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
@@ -5410,10 +5617,10 @@
         <v>203</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>183</v>
       </c>
@@ -5421,10 +5628,10 @@
         <v>204</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -5432,7 +5639,7 @@
         <v>205</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -5443,7 +5650,7 @@
         <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -5454,7 +5661,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5465,7 +5672,7 @@
         <v>208</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -5476,7 +5683,7 @@
         <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5487,7 +5694,7 @@
         <v>210</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -5498,7 +5705,7 @@
         <v>211</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -5509,7 +5716,7 @@
         <v>212</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5520,7 +5727,7 @@
         <v>213</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -5531,7 +5738,7 @@
         <v>214</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +5756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B495A71-ED42-4CFB-B03A-0D240B539277}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
@@ -6788,7 +6995,7 @@
         <v>323</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -6836,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B0BB65-ECFF-491C-AC0C-F906998340A5}">
   <dimension ref="A1:AL200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6847,7 +7054,7 @@
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.58203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -6928,10 +7135,12 @@
       <c r="E2" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="F2" s="15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -6965,23 +7174,27 @@
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="16" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -7015,23 +7228,27 @@
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>768</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -7065,23 +7282,27 @@
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="16" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -7115,23 +7336,27 @@
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -7165,23 +7390,27 @@
       <c r="AL6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -7215,23 +7444,27 @@
       <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -7266,24 +7499,26 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="F9" s="15" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -7318,24 +7553,26 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="F10" s="15" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -7370,13 +7607,13 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>793</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>794</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>327</v>
@@ -7384,10 +7621,12 @@
       <c r="E11" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="F11" s="15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -7422,24 +7661,26 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="16" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -7474,24 +7715,26 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="15" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -7526,22 +7769,26 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -7575,23 +7822,27 @@
       <c r="AL14" s="7"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>810</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -7626,24 +7877,26 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="G16" s="7"/>
+      <c r="F16" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -7677,23 +7930,27 @@
       <c r="AL16" s="7"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="16" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1428</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -7727,23 +7984,27 @@
       <c r="AL17" s="7"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="16" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -7777,23 +8038,27 @@
       <c r="AL18" s="7"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -7827,23 +8092,27 @@
       <c r="AL19" s="7"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -7877,23 +8146,27 @@
       <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -7927,23 +8200,27 @@
       <c r="AL21" s="7"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -7978,22 +8255,26 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="16" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -8027,25 +8308,27 @@
       <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="F24" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -8079,23 +8362,27 @@
       <c r="AL24" s="7"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -8129,23 +8416,27 @@
       <c r="AL25" s="7"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -8179,23 +8470,27 @@
       <c r="AL26" s="7"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -8230,24 +8525,26 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="F28" s="16" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -8281,25 +8578,27 @@
       <c r="AL28" s="7"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>866</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G29" s="7"/>
+      <c r="F29" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -8334,22 +8633,26 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -8384,22 +8687,26 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="16" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -8434,24 +8741,26 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G32" s="7"/>
+      <c r="F32" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -8486,22 +8795,26 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -8536,24 +8849,26 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G34" s="7"/>
+      <c r="F34" s="16" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -8588,24 +8903,26 @@
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="G35" s="7"/>
+      <c r="F35" s="16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -8640,22 +8957,26 @@
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -8690,24 +9011,26 @@
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G37" s="7"/>
+      <c r="F37" s="15" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -8741,23 +9064,27 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -8792,24 +9119,26 @@
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="G39" s="7"/>
+      <c r="F39" s="15" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -8843,23 +9172,27 @@
       <c r="AL39" s="7"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>910</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="16" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -8893,23 +9226,27 @@
       <c r="AL40" s="7"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -8943,23 +9280,27 @@
       <c r="AL41" s="7"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="16" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -8993,21 +9334,25 @@
       <c r="AL42" s="7"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>921</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -9042,22 +9387,26 @@
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>925</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -9092,22 +9441,26 @@
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>929</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="16" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -9142,18 +9495,22 @@
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>930</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>931</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -9188,18 +9545,22 @@
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>932</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>933</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>1395</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -9234,18 +9595,22 @@
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>934</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>935</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -9280,18 +9645,22 @@
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>936</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>937</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="16" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -9326,18 +9695,22 @@
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>938</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>939</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
+      <c r="F50" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -9372,18 +9745,22 @@
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>940</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>941</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>1429</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -9422,7 +9799,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -9462,7 +9839,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -9502,7 +9879,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -9542,7 +9919,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -9582,7 +9959,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -9622,7 +9999,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -9662,7 +10039,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -9702,7 +10079,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -9742,7 +10119,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -9782,7 +10159,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -9822,7 +10199,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -9862,7 +10239,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -9902,7 +10279,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -9942,7 +10319,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -9982,7 +10359,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -10022,7 +10399,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -10062,7 +10439,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -10102,7 +10479,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -10142,7 +10519,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -10182,7 +10559,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -10222,7 +10599,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -10262,7 +10639,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -10302,7 +10679,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -10342,7 +10719,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -10382,7 +10759,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -10422,7 +10799,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -10462,7 +10839,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -10502,7 +10879,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -10542,7 +10919,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -10582,7 +10959,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -10622,7 +10999,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -10662,7 +11039,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -10702,7 +11079,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
+      <c r="F84" s="16"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -10742,7 +11119,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="8"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -10782,7 +11159,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -10822,7 +11199,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -10862,7 +11239,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -10902,7 +11279,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -10942,7 +11319,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -10982,7 +11359,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -11022,7 +11399,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -11062,7 +11439,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -11102,7 +11479,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -11142,7 +11519,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -11182,7 +11559,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -11222,7 +11599,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
@@ -11262,7 +11639,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="16"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
@@ -11302,7 +11679,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
@@ -11342,7 +11719,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
@@ -11382,7 +11759,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
@@ -11422,7 +11799,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
@@ -11462,7 +11839,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -11502,7 +11879,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
@@ -11542,7 +11919,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
@@ -11582,7 +11959,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="16"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -11622,7 +11999,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
@@ -11662,7 +12039,7 @@
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
@@ -11702,7 +12079,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -11742,7 +12119,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="16"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
@@ -11782,7 +12159,7 @@
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
@@ -11822,7 +12199,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="16"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
@@ -11862,7 +12239,7 @@
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="16"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
@@ -11902,7 +12279,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
@@ -11942,7 +12319,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
@@ -11982,7 +12359,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
@@ -12022,7 +12399,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
@@ -12062,7 +12439,7 @@
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
@@ -12102,7 +12479,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
@@ -12142,7 +12519,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
+      <c r="F120" s="16"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
@@ -12182,7 +12559,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="8"/>
+      <c r="F121" s="16"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
@@ -12222,7 +12599,7 @@
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
+      <c r="F122" s="16"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
@@ -12262,7 +12639,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="8"/>
+      <c r="F123" s="16"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
@@ -12302,7 +12679,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="8"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
@@ -12342,7 +12719,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="8"/>
+      <c r="F125" s="16"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
@@ -12382,7 +12759,7 @@
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
+      <c r="F126" s="16"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -12422,7 +12799,7 @@
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="8"/>
+      <c r="F127" s="16"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
@@ -12462,7 +12839,7 @@
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
@@ -12502,7 +12879,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
@@ -12542,7 +12919,7 @@
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="8"/>
+      <c r="F130" s="16"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
@@ -12582,7 +12959,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
+      <c r="F131" s="16"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -12622,7 +12999,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
+      <c r="F132" s="16"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
@@ -12662,7 +13039,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
@@ -12702,7 +13079,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
+      <c r="F134" s="16"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
@@ -12742,7 +13119,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="8"/>
+      <c r="F135" s="16"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
@@ -12782,7 +13159,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="16"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
@@ -12822,7 +13199,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="16"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -12862,7 +13239,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
@@ -12902,7 +13279,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="8"/>
+      <c r="F139" s="16"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
@@ -12942,7 +13319,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="16"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -12982,7 +13359,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
@@ -13022,7 +13399,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="8"/>
+      <c r="F142" s="16"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
@@ -13062,7 +13439,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
-      <c r="F143" s="8"/>
+      <c r="F143" s="16"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
@@ -13102,7 +13479,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -13142,7 +13519,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="8"/>
+      <c r="F145" s="16"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
@@ -13182,7 +13559,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
-      <c r="F146" s="8"/>
+      <c r="F146" s="16"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
@@ -13222,7 +13599,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
+      <c r="F147" s="16"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
@@ -13262,7 +13639,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
-      <c r="F148" s="8"/>
+      <c r="F148" s="16"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
@@ -13302,7 +13679,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="8"/>
+      <c r="F149" s="16"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
@@ -13342,7 +13719,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="8"/>
+      <c r="F150" s="16"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
@@ -13382,7 +13759,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
-      <c r="F151" s="8"/>
+      <c r="F151" s="16"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
@@ -13422,7 +13799,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
-      <c r="F152" s="8"/>
+      <c r="F152" s="16"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
@@ -13462,7 +13839,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
-      <c r="F153" s="8"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
@@ -13502,7 +13879,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
@@ -13542,7 +13919,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
-      <c r="F155" s="8"/>
+      <c r="F155" s="16"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
@@ -13582,7 +13959,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
-      <c r="F156" s="8"/>
+      <c r="F156" s="16"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
@@ -13622,7 +13999,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
-      <c r="F157" s="8"/>
+      <c r="F157" s="16"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
@@ -13662,7 +14039,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="8"/>
+      <c r="F158" s="16"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
@@ -13702,7 +14079,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="8"/>
+      <c r="F159" s="16"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
@@ -13742,7 +14119,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="8"/>
+      <c r="F160" s="16"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
@@ -13782,7 +14159,7 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
-      <c r="F161" s="8"/>
+      <c r="F161" s="16"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
@@ -13822,7 +14199,7 @@
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
-      <c r="F162" s="8"/>
+      <c r="F162" s="16"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
@@ -13862,7 +14239,7 @@
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="8"/>
+      <c r="F163" s="16"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
@@ -13902,7 +14279,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="8"/>
+      <c r="F164" s="16"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
@@ -13942,7 +14319,7 @@
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="8"/>
+      <c r="F165" s="16"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
@@ -13982,7 +14359,7 @@
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="8"/>
+      <c r="F166" s="16"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
@@ -14022,7 +14399,7 @@
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
-      <c r="F167" s="8"/>
+      <c r="F167" s="16"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
@@ -14062,7 +14439,7 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
-      <c r="F168" s="8"/>
+      <c r="F168" s="16"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
@@ -14102,7 +14479,7 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
-      <c r="F169" s="8"/>
+      <c r="F169" s="16"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
@@ -14142,7 +14519,7 @@
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
-      <c r="F170" s="8"/>
+      <c r="F170" s="16"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
@@ -14182,7 +14559,7 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="8"/>
+      <c r="F171" s="16"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
@@ -14222,7 +14599,7 @@
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
-      <c r="F172" s="8"/>
+      <c r="F172" s="16"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
@@ -14262,7 +14639,7 @@
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
-      <c r="F173" s="8"/>
+      <c r="F173" s="16"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
@@ -14302,7 +14679,7 @@
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
-      <c r="F174" s="8"/>
+      <c r="F174" s="16"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
@@ -14342,7 +14719,7 @@
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
-      <c r="F175" s="8"/>
+      <c r="F175" s="16"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
@@ -14382,7 +14759,7 @@
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
-      <c r="F176" s="8"/>
+      <c r="F176" s="16"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
@@ -14422,7 +14799,7 @@
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="8"/>
+      <c r="F177" s="16"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
@@ -14462,7 +14839,7 @@
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
-      <c r="F178" s="8"/>
+      <c r="F178" s="16"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
@@ -14502,7 +14879,7 @@
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
-      <c r="F179" s="8"/>
+      <c r="F179" s="16"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
@@ -14542,7 +14919,7 @@
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="8"/>
+      <c r="F180" s="16"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
@@ -14582,7 +14959,7 @@
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
-      <c r="F181" s="8"/>
+      <c r="F181" s="16"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
@@ -14622,7 +14999,7 @@
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="8"/>
+      <c r="F182" s="16"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
@@ -14662,7 +15039,7 @@
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="8"/>
+      <c r="F183" s="16"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
@@ -14702,7 +15079,7 @@
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="8"/>
+      <c r="F184" s="16"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
@@ -14742,7 +15119,7 @@
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
-      <c r="F185" s="8"/>
+      <c r="F185" s="16"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
@@ -14782,7 +15159,7 @@
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
-      <c r="F186" s="8"/>
+      <c r="F186" s="16"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
@@ -14822,7 +15199,7 @@
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
-      <c r="F187" s="8"/>
+      <c r="F187" s="16"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
@@ -14862,7 +15239,7 @@
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
-      <c r="F188" s="8"/>
+      <c r="F188" s="16"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
@@ -14902,7 +15279,7 @@
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="8"/>
+      <c r="F189" s="16"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
@@ -14942,7 +15319,7 @@
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
-      <c r="F190" s="8"/>
+      <c r="F190" s="16"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
@@ -14982,7 +15359,7 @@
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
-      <c r="F191" s="8"/>
+      <c r="F191" s="16"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
@@ -15022,7 +15399,7 @@
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="8"/>
+      <c r="F192" s="16"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
@@ -15062,7 +15439,7 @@
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="8"/>
+      <c r="F193" s="16"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
@@ -15102,7 +15479,7 @@
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="8"/>
+      <c r="F194" s="16"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
@@ -15142,7 +15519,7 @@
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
-      <c r="F195" s="8"/>
+      <c r="F195" s="16"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
@@ -15182,7 +15559,7 @@
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
-      <c r="F196" s="8"/>
+      <c r="F196" s="16"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
@@ -15222,7 +15599,7 @@
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
-      <c r="F197" s="8"/>
+      <c r="F197" s="16"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
@@ -15262,7 +15639,7 @@
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="8"/>
+      <c r="F198" s="16"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
@@ -15302,7 +15679,7 @@
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
-      <c r="F199" s="8"/>
+      <c r="F199" s="16"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
@@ -15342,7 +15719,7 @@
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
-      <c r="F200" s="8"/>
+      <c r="F200" s="16"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
@@ -15377,6 +15754,7 @@
       <c r="AL200" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL200" xr:uid="{15B0BB65-ECFF-491C-AC0C-F906998340A5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15428,632 +15806,632 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>987</v>
+      <c r="C2" s="10" t="s">
+        <v>986</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>988</v>
+      <c r="C3" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>989</v>
+      <c r="C4" s="10" t="s">
+        <v>988</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>990</v>
+      <c r="C5" s="10" t="s">
+        <v>989</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>991</v>
+      <c r="C6" s="10" t="s">
+        <v>990</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>992</v>
+      <c r="C7" s="10" t="s">
+        <v>991</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>993</v>
+      <c r="C8" s="10" t="s">
+        <v>992</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>994</v>
+      <c r="C9" s="10" t="s">
+        <v>993</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>995</v>
+      <c r="C10" s="10" t="s">
+        <v>994</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>996</v>
+      <c r="C11" s="10" t="s">
+        <v>995</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>997</v>
+      <c r="C12" s="10" t="s">
+        <v>996</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>998</v>
+      <c r="C13" s="10" t="s">
+        <v>997</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>999</v>
+      <c r="C14" s="10" t="s">
+        <v>998</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>1000</v>
+      <c r="C15" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>1001</v>
+      <c r="C16" s="10" t="s">
+        <v>1000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>1002</v>
+      <c r="C17" s="10" t="s">
+        <v>1001</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>1003</v>
+      <c r="C18" s="11" t="s">
+        <v>1002</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>1004</v>
+      <c r="C19" s="10" t="s">
+        <v>1003</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>1005</v>
+      <c r="C20" s="10" t="s">
+        <v>1004</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>1006</v>
+      <c r="C21" s="10" t="s">
+        <v>1005</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>1007</v>
+      <c r="C22" s="10" t="s">
+        <v>1006</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>1008</v>
+      <c r="C23" s="10" t="s">
+        <v>1007</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>1009</v>
+      <c r="C24" s="10" t="s">
+        <v>1008</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>1010</v>
+      <c r="C25" s="10" t="s">
+        <v>1009</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>1011</v>
+      <c r="C27" s="10" t="s">
+        <v>1010</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1012</v>
+      <c r="C28" s="10" t="s">
+        <v>1011</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>1013</v>
+      <c r="C29" s="10" t="s">
+        <v>1012</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>1014</v>
+      <c r="C30" s="10" t="s">
+        <v>1013</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>1015</v>
+      <c r="C31" s="10" t="s">
+        <v>1014</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>1016</v>
+      <c r="C32" s="10" t="s">
+        <v>1015</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>1017</v>
+      <c r="C33" s="10" t="s">
+        <v>1016</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>1018</v>
+      <c r="C34" s="10" t="s">
+        <v>1017</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>1019</v>
+      <c r="C35" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>1020</v>
+      <c r="C36" s="10" t="s">
+        <v>1019</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>1021</v>
+      <c r="C37" s="10" t="s">
+        <v>1020</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>1022</v>
+      <c r="C38" s="10" t="s">
+        <v>1021</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>1023</v>
+      <c r="C39" s="10" t="s">
+        <v>1022</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>1024</v>
+      <c r="C40" s="10" t="s">
+        <v>1023</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>1025</v>
+      <c r="C41" s="10" t="s">
+        <v>1024</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>1026</v>
+      <c r="C42" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>1027</v>
+      <c r="C43" s="10" t="s">
+        <v>1026</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>1028</v>
+      <c r="C44" s="10" t="s">
+        <v>1027</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>1029</v>
+      <c r="C45" s="10" t="s">
+        <v>1028</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>1030</v>
+      <c r="C46" s="12" t="s">
+        <v>1029</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -16067,16 +16445,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355C27CB-4BF2-4D47-B53C-437EC604D951}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.4140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -16117,7 +16495,7 @@
         <v>429</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16134,7 +16512,7 @@
         <v>430</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -16151,7 +16529,7 @@
         <v>431</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -16168,7 +16546,7 @@
         <v>432</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -16185,7 +16563,7 @@
         <v>433</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -16202,7 +16580,7 @@
         <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -16219,7 +16597,7 @@
         <v>435</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -16236,7 +16614,7 @@
         <v>436</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -16253,7 +16631,7 @@
         <v>437</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -16270,7 +16648,7 @@
         <v>438</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -16287,7 +16665,7 @@
         <v>439</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -16304,7 +16682,7 @@
         <v>440</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -16321,7 +16699,7 @@
         <v>441</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -16338,7 +16716,7 @@
         <v>442</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -16355,7 +16733,7 @@
         <v>443</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -16372,7 +16750,7 @@
         <v>444</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -16389,7 +16767,7 @@
         <v>445</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -16406,7 +16784,7 @@
         <v>446</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -16420,10 +16798,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1359</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -16440,7 +16818,7 @@
         <v>447</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -16457,7 +16835,7 @@
         <v>448</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -16474,7 +16852,7 @@
         <v>449</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -16491,7 +16869,7 @@
         <v>450</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -16508,7 +16886,7 @@
         <v>451</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -16525,7 +16903,7 @@
         <v>452</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -16542,7 +16920,7 @@
         <v>453</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -16559,7 +16937,7 @@
         <v>454</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -16575,6 +16953,9 @@
       <c r="C29" s="4" t="s">
         <v>455</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>1430</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -16589,6 +16970,9 @@
       <c r="C30" s="4" t="s">
         <v>456</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>1431</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -16603,6 +16987,9 @@
       <c r="C31" s="4" t="s">
         <v>457</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>1432</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -16617,6 +17004,9 @@
       <c r="C32" s="4" t="s">
         <v>458</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>1433</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -16631,6 +17021,9 @@
       <c r="C33" s="4" t="s">
         <v>459</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>1434</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -17400,6 +17793,9 @@
       </c>
       <c r="C88" s="4" t="s">
         <v>514</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1376</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -17735,7 +18131,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -17746,7 +18142,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -17761,7 +18157,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -17776,7 +18172,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -17791,7 +18187,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -17806,7 +18202,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -17821,7 +18217,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -17836,7 +18232,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -17851,7 +18247,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -17866,13 +18262,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -17883,13 +18279,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -17900,7 +18296,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -17915,7 +18311,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -17930,7 +18326,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -17945,7 +18341,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -17960,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -17975,7 +18371,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -17990,7 +18386,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -18005,7 +18401,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -18020,7 +18416,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -18035,7 +18431,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -18050,7 +18446,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -18065,7 +18461,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -18080,7 +18476,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -18095,7 +18491,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -18110,7 +18506,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -18125,7 +18521,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -18140,7 +18536,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -18155,7 +18551,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -18170,7 +18566,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -18185,7 +18581,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -18200,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -18215,7 +18611,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -18230,7 +18626,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -18245,7 +18641,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -18260,7 +18656,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -18275,7 +18671,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -18290,7 +18686,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -18305,7 +18701,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -18320,7 +18716,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -18335,7 +18731,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -18350,7 +18746,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -18365,7 +18761,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -18380,7 +18776,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -18395,7 +18791,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -18410,7 +18806,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -18425,7 +18821,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -18440,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -18455,7 +18851,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -18470,7 +18866,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -18485,7 +18881,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -18500,7 +18896,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -18515,13 +18911,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -18532,13 +18928,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -18549,13 +18945,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -18566,13 +18962,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -18598,13 +18994,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -18615,13 +19011,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -18632,13 +19028,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -18649,13 +19045,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -18666,13 +19062,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -18683,13 +19079,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -18700,7 +19096,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -18715,7 +19111,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -18730,7 +19126,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -18745,13 +19141,13 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -18762,13 +19158,13 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -18779,7 +19175,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -18794,7 +19190,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -18809,7 +19205,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -18824,7 +19220,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -18839,7 +19235,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -18854,13 +19250,13 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -18871,13 +19267,13 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -18888,7 +19284,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -18903,7 +19299,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -18918,13 +19314,13 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -18935,13 +19331,13 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -18952,7 +19348,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -18967,7 +19363,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -18982,13 +19378,13 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -18999,13 +19395,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -19016,7 +19412,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -19031,7 +19427,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -19046,7 +19442,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -19061,13 +19457,13 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -19078,13 +19474,13 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -19095,7 +19491,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -19110,7 +19506,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -19125,7 +19521,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -19140,7 +19536,7 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -19155,7 +19551,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -19170,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -19185,7 +19581,7 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -19200,7 +19596,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -19215,7 +19611,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -19230,7 +19626,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -19245,7 +19641,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -19260,7 +19656,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -19275,7 +19671,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -19290,7 +19686,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -19305,7 +19701,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -19335,7 +19731,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -19350,7 +19746,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -19365,7 +19761,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -19380,7 +19776,7 @@
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -19395,7 +19791,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -19410,13 +19806,13 @@
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -19427,13 +19823,13 @@
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -19444,13 +19840,13 @@
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -19461,7 +19857,7 @@
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -19476,7 +19872,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H114" s="1"/>
     </row>
@@ -19488,7 +19884,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H115" s="1"/>
     </row>
@@ -19500,7 +19896,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H116" s="1"/>
     </row>
@@ -19512,7 +19908,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H117" s="1"/>
     </row>
@@ -19524,7 +19920,7 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H118" s="1"/>
     </row>
@@ -19536,7 +19932,7 @@
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H119" s="1"/>
     </row>
@@ -19548,7 +19944,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H120" s="1"/>
     </row>
@@ -19560,7 +19956,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H121" s="1"/>
     </row>
@@ -19572,7 +19968,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H122" s="1"/>
     </row>
@@ -19584,7 +19980,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H123" s="1"/>
     </row>
@@ -19596,7 +19992,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H124" s="1"/>
     </row>
@@ -19608,7 +20004,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H125" s="1"/>
     </row>
@@ -19620,7 +20016,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H126" s="1"/>
     </row>
@@ -19632,7 +20028,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H127" s="1"/>
     </row>
@@ -19644,7 +20040,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H128" s="1"/>
     </row>
@@ -19656,7 +20052,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H129" s="1"/>
     </row>
@@ -19668,7 +20064,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H130" s="1"/>
     </row>
@@ -19680,7 +20076,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H131" s="1"/>
     </row>
@@ -19692,7 +20088,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H132" s="1"/>
     </row>
@@ -19704,7 +20100,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H133" s="1"/>
     </row>
@@ -19716,7 +20112,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H134" s="1"/>
     </row>
@@ -19728,7 +20124,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H135" s="1"/>
     </row>
@@ -19740,7 +20136,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H136" s="1"/>
     </row>
@@ -19752,7 +20148,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H137" s="1"/>
     </row>
@@ -19764,7 +20160,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H138" s="1"/>
     </row>
@@ -19776,7 +20172,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H139" s="1"/>
     </row>
@@ -19788,7 +20184,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H140" s="1"/>
     </row>
@@ -19800,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H141" s="1"/>
     </row>
@@ -19812,7 +20208,7 @@
         <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H142" s="1"/>
     </row>
@@ -19824,7 +20220,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H143" s="1"/>
     </row>
@@ -19836,7 +20232,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H144" s="1"/>
     </row>
@@ -19848,7 +20244,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H145" s="1"/>
     </row>
@@ -19860,7 +20256,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H146" s="1"/>
     </row>
@@ -19872,7 +20268,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H147" s="1"/>
     </row>
@@ -19884,7 +20280,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H148" s="1"/>
     </row>
@@ -19896,7 +20292,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H149" s="1"/>
     </row>
@@ -19908,7 +20304,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H150" s="1"/>
     </row>
@@ -19920,7 +20316,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H151" s="1"/>
     </row>
@@ -19932,7 +20328,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H152" s="1"/>
     </row>
@@ -19944,7 +20340,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H153" s="1"/>
     </row>
@@ -19956,7 +20352,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H154" s="1"/>
     </row>
@@ -19968,7 +20364,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H155" s="1"/>
     </row>
@@ -19980,7 +20376,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H156" s="1"/>
     </row>
@@ -19992,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H157" s="1"/>
     </row>
@@ -20004,7 +20400,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H158" s="1"/>
     </row>
@@ -20016,7 +20412,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H159" s="1"/>
     </row>
@@ -20028,10 +20424,10 @@
         <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -20042,10 +20438,10 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -20056,10 +20452,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -20070,7 +20466,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H163" s="1"/>
     </row>
@@ -20082,7 +20478,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H164" s="1"/>
     </row>
@@ -20094,7 +20490,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H165" s="1"/>
     </row>
@@ -20106,7 +20502,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H166" s="1"/>
     </row>
@@ -20118,7 +20514,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H167" s="1"/>
     </row>
@@ -20130,10 +20526,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -20144,10 +20540,10 @@
         <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -20158,10 +20554,10 @@
         <v>2</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -20172,7 +20568,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H171" s="1"/>
     </row>
@@ -20184,7 +20580,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H172" s="1"/>
     </row>
@@ -20196,7 +20592,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H173" s="1"/>
     </row>
@@ -20208,7 +20604,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H174" s="1"/>
     </row>
@@ -20220,7 +20616,7 @@
         <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H175" s="1"/>
     </row>
@@ -20232,7 +20628,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H176" s="1"/>
     </row>
@@ -20244,7 +20640,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H177" s="1"/>
     </row>
@@ -20256,7 +20652,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H178" s="1"/>
     </row>
@@ -20268,7 +20664,7 @@
         <v>2</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H179" s="1"/>
     </row>
@@ -20280,10 +20676,10 @@
         <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -20294,10 +20690,10 @@
         <v>2</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -20308,10 +20704,10 @@
         <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -20322,10 +20718,10 @@
         <v>2</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -20336,7 +20732,7 @@
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H184" s="1"/>
     </row>
@@ -20360,7 +20756,7 @@
         <v>2</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H186" s="1"/>
     </row>
@@ -20372,7 +20768,7 @@
         <v>2</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H187" s="1"/>
     </row>
@@ -20384,7 +20780,7 @@
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H188" s="1"/>
     </row>
@@ -20396,7 +20792,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H189" s="1"/>
     </row>
@@ -20408,10 +20804,10 @@
         <v>2</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -20422,10 +20818,10 @@
         <v>2</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -20436,10 +20832,10 @@
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -20450,10 +20846,10 @@
         <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -20464,7 +20860,7 @@
         <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H194" s="1"/>
     </row>
@@ -20476,7 +20872,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H195" s="1"/>
     </row>
@@ -20488,7 +20884,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H196" s="1"/>
     </row>
@@ -20500,7 +20896,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H197" s="1"/>
     </row>
@@ -20512,7 +20908,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H198" s="1"/>
     </row>
@@ -20524,7 +20920,7 @@
         <v>2</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H199" s="1"/>
     </row>
@@ -20536,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H200" s="1"/>
     </row>
@@ -20548,7 +20944,7 @@
         <v>2</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H201" s="1"/>
     </row>
@@ -20560,10 +20956,10 @@
         <v>2</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -20574,10 +20970,10 @@
         <v>2</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -20588,10 +20984,10 @@
         <v>2</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -20602,10 +20998,10 @@
         <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -20616,10 +21012,10 @@
         <v>2</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -20630,7 +21026,7 @@
         <v>2</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H207" s="1"/>
     </row>
@@ -20642,7 +21038,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H208" s="1"/>
     </row>
@@ -20654,7 +21050,7 @@
         <v>2</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H209" s="1"/>
     </row>
@@ -20666,7 +21062,7 @@
         <v>2</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H210" s="1"/>
     </row>
@@ -20678,7 +21074,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -20689,7 +21085,7 @@
         <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -20700,7 +21096,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -20711,7 +21107,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -20722,7 +21118,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -20733,7 +21129,7 @@
         <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -20744,7 +21140,7 @@
         <v>2</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
